--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
-    <t>数据cangku</t>
+    <t>数据仓库</t>
   </si>
   <si>
-    <t>数据jishi</t>
+    <t>数据集市</t>
   </si>
   <si>
     <t>用于支持决策,面向分析型数据处理,它不同于企业现有的操作型数据库;
@@ -29,12 +29,49 @@
   </si>
   <si>
     <t>原子数据仓库
-原子数据仓库的子集,又称为数据集市
+原子数据仓库的子集，就是数据集市
 可以位于原子数据仓库的附近，或者分布到更靠近用户的位置，放置在何处取决于使用和通讯成本</t>
   </si>
   <si>
     <t>独立型（直接从操作型环境中获取数据）：与其他工作组、部门或业务线的数据集市没有任何连通性
 从属型（从企业级数据仓库中获取数据）：提供更加全面的全局业务范围的数据视图</t>
+  </si>
+  <si>
+    <r>
+      <t>数据仓库设计方法论：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1)自顶向下的实现：需要考虑 要使用的数据源、安全性、数据结构、数据质量、数据标准和整个数据模型的有关决策.....
+(2)自底向上的实现：可以扩展更大业务范围
+(3)一种折中方案</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>设计良好的数据集市有如下特点：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1) 特定用户群体所需的信息
+(2) 支持访问非易变（nonvolatile）的业务信息。
+(3) 调和来自于组织里多个运行系统的信息
+(4) 通过默认有效值、使各系统的值保持一致以及添加描述以使隐含代码有意义，从而提供净化的（cleansed）数据。
+(5) 为即席分析和预定义报表提供合理的查询响应时间
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -47,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,7 +94,15 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -550,152 +595,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +751,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1107,7 @@
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:M12"/>
+      <selection activeCell="B13" sqref="B13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1067,7 +1115,7 @@
     <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="2:13">
+    <row r="2" ht="24" customHeight="1" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,13 +1280,17 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1287,7 +1339,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" ht="43" customHeight="1" spans="2:13">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据仓库设计方法论：</t>
     </r>
     <r>
@@ -124,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,53 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -210,7 +170,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +198,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +236,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -254,14 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,14 +267,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,11 +290,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -325,31 +339,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,151 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,23 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,8 +614,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,21 +654,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +674,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +830,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,6 +894,95 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3251200"/>
+          <a:ext cx="10685780" cy="3799840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="7194550"/>
+          <a:ext cx="10628630" cy="3942715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -998,6 +1098,48 @@
         <a:xfrm>
           <a:off x="695325" y="17049750"/>
           <a:ext cx="17790160" cy="7495540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24860250"/>
+          <a:ext cx="9599930" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1492,17 +1634,17 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="2:23">
       <c r="B14" s="7"/>
@@ -1517,15 +1659,15 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:23">
       <c r="B15" s="7"/>
@@ -1540,15 +1682,15 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
     <row r="16" spans="2:23">
       <c r="B16" s="7"/>
@@ -1563,15 +1705,15 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="2:23">
       <c r="B17" s="7"/>
@@ -1586,15 +1728,15 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
     </row>
     <row r="18" spans="2:23">
       <c r="B18" s="7"/>
@@ -1609,15 +1751,15 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="7"/>
@@ -1632,15 +1774,15 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="7"/>
@@ -1655,15 +1797,15 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
     </row>
     <row r="21" spans="2:23">
       <c r="B21" s="7"/>
@@ -1678,15 +1820,15 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
     </row>
     <row r="22" spans="2:23">
       <c r="B22" s="7"/>
@@ -1701,15 +1843,15 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
     </row>
     <row r="23" spans="2:23">
       <c r="B23" s="7"/>
@@ -1724,15 +1866,15 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
     </row>
     <row r="24" spans="2:23">
       <c r="B24" s="7"/>
@@ -1747,15 +1889,15 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
     </row>
     <row r="25" spans="2:23">
       <c r="B25" s="7"/>
@@ -1770,15 +1912,15 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
     </row>
     <row r="26" spans="2:23">
       <c r="B26" s="7"/>
@@ -1793,15 +1935,15 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
     </row>
     <row r="27" spans="2:23">
       <c r="B27" s="7"/>
@@ -1816,15 +1958,15 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
     </row>
     <row r="28" spans="2:23">
       <c r="B28" s="7"/>
@@ -1839,15 +1981,15 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
     </row>
     <row r="29" spans="2:23">
       <c r="B29" s="7"/>
@@ -1862,15 +2004,15 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
     </row>
     <row r="30" spans="2:23">
       <c r="B30" s="7"/>
@@ -1885,15 +2027,15 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31" spans="2:23">
       <c r="B31" s="7"/>
@@ -1908,15 +2050,15 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
     </row>
     <row r="32" spans="2:23">
       <c r="B32" s="7"/>
@@ -1931,26 +2073,26 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
     </row>
     <row r="34" spans="2:23">
       <c r="B34" s="7"/>
@@ -1965,15 +2107,15 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
     </row>
     <row r="35" spans="2:23">
       <c r="B35" s="7"/>
@@ -1988,15 +2130,15 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" spans="2:23">
       <c r="B36" s="7"/>
@@ -2011,15 +2153,15 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
     </row>
     <row r="37" spans="2:23">
       <c r="B37" s="7"/>
@@ -2034,15 +2176,15 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
     </row>
     <row r="38" ht="28" customHeight="1" spans="2:23">
       <c r="B38" s="7"/>
@@ -2057,15 +2199,15 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2099,7 +2241,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2408,6 +2550,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2416,8 +2559,8 @@
   <sheetPr/>
   <dimension ref="B2:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="Q152" sqref="Q152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>数据仓库</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>ACCEPTED applications</t>
   </si>
+  <si>
+    <t>20171102上午集群资源紧张</t>
+  </si>
 </sst>
 </file>
 
@@ -162,6 +165,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,17 +179,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,10 +193,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,7 +233,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,55 +270,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +286,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -339,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,17 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,8 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,20 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +648,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,20 +1115,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>684530</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1138,7 +1141,91 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="24860250"/>
+          <a:off x="666750" y="26279475"/>
+          <a:ext cx="12999720" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="27260550"/>
+          <a:ext cx="5219065" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>465455</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="27174825"/>
           <a:ext cx="9599930" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2557,10 +2644,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E99"/>
+  <dimension ref="B2:E153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="Q152" sqref="Q152"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2588,6 +2675,11 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -135,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,13 +165,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,7 +172,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,19 +194,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,8 +224,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -262,23 +270,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -293,9 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,181 +342,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +560,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -584,15 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -608,17 +614,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,17 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,7 +677,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,124 +686,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,6 +1239,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="29146500"/>
+          <a:ext cx="5733415" cy="3133090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2647,7 +2689,7 @@
   <dimension ref="B2:E153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+      <selection activeCell="O171" sqref="O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Onedata集群" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>数据仓库</t>
   </si>
@@ -128,6 +129,19 @@
   <si>
     <t>20171102上午集群资源紧张</t>
   </si>
+  <si>
+    <t>CarbonData是一种低时延查询、存储和计算分离的轻量化文件存储格式。
+CarbonData项目是华为公司从多年数据处理经验和行业理解中逐步积累起来的，2015年我们对系统进行了一次架构重构，使其演化为HDFS上的一套通用的列式存储，支持和Spark引擎对接后形成一套分布式OLAP分析的解决方案。</t>
+  </si>
+  <si>
+    <t>华为CCE，是华为Cloud Container Engine 的缩写，即华为云容器引擎。2015年12月15日华为企业云服务 正式推出了云容器服务——CCE容器引擎。
+CCE容器引擎，该服务基于以Kubernetes+Docker为 代表的容器技术 。旨在为企业应用 提供从开发、构建、部署/托管、监控、弹性伸缩、故障恢复等全生命周期的一站式解决方案。
+CCE容器有以下特点：
+1.敏捷高效：一键创建容器集群，秒级启动海量Docker容器。
+2.高安全性：用户私享专属容器集群，量身打造容器安全解决方案。
+3.简单易用：提供简单、直观的图形化编排工具，可视化设计各种应用。
+4.容器监控：支持自动化的容器管理，故障自动恢复；支持容器弹性伸缩，以满足用户对计算能力和容量的需求，对业务不产生任何影响。</t>
+  </si>
 </sst>
 </file>
 
@@ -135,9 +149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,17 +194,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,10 +207,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,7 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +249,52 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,53 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,19 +356,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +452,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,37 +518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,103 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,25 +574,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,6 +596,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +632,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -665,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,7 +691,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,7 +700,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,118 +712,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1583,760 +1600,760 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="O13" s="7" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="2:23">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
     </row>
     <row r="30" spans="2:23">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
     </row>
     <row r="31" spans="2:23">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
     </row>
     <row r="38" ht="28" customHeight="1" spans="2:23">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2380,276 +2397,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2688,35 +2705,35 @@
   <sheetPr/>
   <dimension ref="B2:E153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A160" workbookViewId="0">
       <selection activeCell="O171" sqref="O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -2734,4 +2751,113 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="81" customHeight="1" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" ht="123" customHeight="1" spans="2:8">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="B6:H11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -10,14 +10,14 @@
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Onedata集群" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="华为开发者社区" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>数据仓库</t>
   </si>
@@ -134,6 +134,10 @@
 CarbonData项目是华为公司从多年数据处理经验和行业理解中逐步积累起来的，2015年我们对系统进行了一次架构重构，使其演化为HDFS上的一套通用的列式存储，支持和Spark引擎对接后形成一套分布式OLAP分析的解决方案。</t>
   </si>
   <si>
+    <t>1.《手册在线化通用样式规范》：在基于现有的IDP工具资料开发规范的基础之上，为了适配网页在线化的需求，给出一套可复制的内容要求约束的模板及样式要求约束的规范，用于各业务进驻开发者网站时参考。
+在线化不同于传统的资料开发发布成可在线下载的文档模式，可以利用网页后台的一些样式转换工具，去实现例如代码高亮，内嵌链接互链等web页面特征，同时增加互动及用户反馈，在视觉效果和用户体验上有更好的提升。同时在线化为了达到上述的展示效果，需要首先在源文件即原始IDP文档中，通过为关键元素定义标识或标签，使得网页侧可以识别不同元素性质，从而调用不同工具进行格式转换。</t>
+  </si>
+  <si>
     <t>华为CCE，是华为Cloud Container Engine 的缩写，即华为云容器引擎。2015年12月15日华为企业云服务 正式推出了云容器服务——CCE容器引擎。
 CCE容器引擎，该服务基于以Kubernetes+Docker为 代表的容器技术 。旨在为企业应用 提供从开发、构建、部署/托管、监控、弹性伸缩、故障恢复等全生命周期的一站式解决方案。
 CCE容器有以下特点：
@@ -141,6 +145,19 @@
 2.高安全性：用户私享专属容器集群，量身打造容器安全解决方案。
 3.简单易用：提供简单、直观的图形化编排工具，可视化设计各种应用。
 4.容器监控：支持自动化的容器管理，故障自动恢复；支持容器弹性伸缩，以满足用户对计算能力和容量的需求，对业务不产生任何影响。</t>
+  </si>
+  <si>
+    <t>2.《API开发指南写作指引》：开发指南面向开发者提供二次开发端到端指导，通过快速入门和典型应用开发场景，循序渐进地指导开发人员完成基于平台/产品提供的开放API或SDK进行二次开发，以最终实现某个特性或功能。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.《API接口参考文档写作指南》：API接口参考包含开放类接口全集，按照场景或功能进行分类，通常包含接口描述、注意事项/使用说明、前提条件、接口所属类、方法定义/函数原型、参数描述、返回值、使用示例等。
+</t>
+  </si>
+  <si>
+    <t>企业云是专门应用在商业领域的商业云系统，专门设计CRM(Customer Relationship Management)客户关系管理软件、HR(Human Resource)人力资源管理软件、Database数据库软件等企业内部系统给商业公司使用的云系统。</t>
+  </si>
+  <si>
+    <t>4.《Sample Code写作规范》：本规范规定了eSDK Sample Codes写作必须遵守的基本规范，包括：编程规范、安全规范、开发者体验、日志规范、代码风格等。从代码的清晰、简洁、可测试、安全、程序效率、可移植、开发者体验各个方面对eSDK Sample Codes写作作出了具体指导。本规范的制定考虑了公司各种业务eSDK Sample Code开发的共性，适合于公司所有产品，要求eSDK Sample Code开发必须遵循本规范。同时包含了README写作规范。</t>
   </si>
 </sst>
 </file>
@@ -153,12 +170,27 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,14 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,165 +715,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1301,6 +1340,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="6089650"/>
+          <a:ext cx="6809740" cy="9247505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1600,760 +1686,760 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="O13" s="8" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="O13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="2:23">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
     </row>
     <row r="30" spans="2:23">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
     </row>
     <row r="31" spans="2:23">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
     </row>
     <row r="38" ht="28" customHeight="1" spans="2:23">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2397,276 +2483,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2712,28 +2798,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -2756,108 +2842,332 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="18" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" ht="81" customHeight="1" spans="2:8">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" ht="123" customHeight="1" spans="2:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" ht="81" customHeight="1" spans="2:22">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="2:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="80" customHeight="1" spans="2:21">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="11:21">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" ht="29" customHeight="1" spans="11:21">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="K11:U11"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="B6:H11"/>
+    <mergeCell ref="B13:H17"/>
+    <mergeCell ref="K2:U4"/>
+    <mergeCell ref="K6:U9"/>
+    <mergeCell ref="K15:U18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>数据仓库</t>
   </si>
@@ -234,23 +234,43 @@
 Reach ：送达，有两个方面的含义：（1）在报告期内访问网站的独立用户，以某类用户占全部人口的百分比表示；（2）对于一个给定的广告所传递到的总的独立用户数量。</t>
   </si>
   <si>
+    <t>DX（Developer Experience ），一般而言，它是开发者跟你的 API 交互时所有体验的汇总。
+如果这当中有很多体验都不好的，他们就不想用了。然后跟朋友抱怨你的 API。更糟的是，如果你的竞争对手 DX 更好，他们可能就会转过去了。
+反之，如果你的对手不注意开发者体验，那你吸引更多用户的机会来了。如果两个竞争对手的 API 类似但其中一个对开发者更加友好，聚焦 DX 的公司就会拥有竞争优势。</t>
+  </si>
+  <si>
     <t>Mapjoin</t>
   </si>
   <si>
     <t>案例</t>
+  </si>
+  <si>
+    <t>使用</t>
   </si>
   <si>
     <t>select f.a,f.b from A t join B f  on ( f.a=t.a and f.ftime=20110802)  
 该语句中B表有30亿行记录，A表只有100行记录，而且B表中数据倾斜特别严重，有一个key上有15亿行记录，在运行过程中特别的慢，而且在reduece的过程中遇有内存不够而报错。</t>
   </si>
   <si>
+    <t>就是把小的表加入内存，可以配置以下参数，是hive自动根据sql，选择使用common join或者map join
+set hive.auto.convert.join = true;
+hive.mapjoin.smalltable.filesize=25000000 默认值是25mb</t>
+  </si>
+  <si>
     <t>原理</t>
   </si>
   <si>
     <t>MAPJION会把小表全部读入内存中，在map阶段直接拿另外一个表的数据和内存中表数据做匹配，由于在map是进行了join操作，省去了reduce运行的效率也会高很多</t>
   </si>
   <si>
+    <t>set hive.auto.convert.join=false，默认设置为true，hive.mapjoin.smalltable.filesize 默认值是25mb，但有些时候 一些表文件小于25mb但是有几千万条数据（字段比较少而且都是几位的数字）这个时候set hive.auto.convert.join=false。
+如果部分表需要使用mapjoin，使用hint。</t>
+  </si>
+  <si>
     <t>解决</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>这样就不会由于数据倾斜导致某个reduce上落数据太多而失败。于是原来的sql可以通过使用hint的方式指定join时使用mapjoin。
@@ -259,11 +279,24 @@
 select A.a ,A.b from A join B where A.a&gt;B.a</t>
   </si>
   <si>
+    <t>如果在hive中运行的sql本身数据量很小，那么使用本地mr的效率要比分布式的快很多。但是hive本地MR对内存使用很敏感，查询的数据不能太大，否则本地内存是吃不消的。
+set  hive.mapjoin.localtask.max.memory.usage = 0.999
+查询处理器会在一个子的jvm里运作这个任务，jvm堆大小跟Mapper的堆大小一样。本地MR可能内存消耗殆尽，查询处理器用精确的计算本地MR的内存大小，一旦内存超过了设定的值，那么这个MR就会自动kill掉。可以通过设置
+hive.mapjoin.localtask.max.memory.usage =0.9
+set hive.exec.mode.local.auto=true   //开启本地mr
+//设置local mr的最大输入数据量,当输入数据量小于这个值的时候会采用local  mr的方式
+set hive.exec.mode.local.auto.inputbytes.max=50000000;
+//设置local mr的最大输入文件个数,当输入文件个数小于这个值的时候会采用local mr的方式
+set hive.exec.mode.local.auto.tasks.max=10;
+当这三个参数同时成立时候，才会采用本地mr</t>
+  </si>
+  <si>
     <t>场景</t>
   </si>
   <si>
     <t>1. 关联操作中有一张表非常小
-2.不等值的链接操作</t>
+2.不等值的链接操作
+Hint</t>
   </si>
   <si>
     <t>Spark on Yarn</t>
@@ -354,11 +387,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,14 +414,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -409,6 +442,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -912,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,16 +965,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,113 +989,113 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,40 +1120,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
@@ -1121,9 +1165,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1139,17 +1189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2274,760 +2318,760 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="O13" s="30" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="2:23">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="2:23">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="2:23">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="2:23">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="2:23">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" spans="2:23">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" spans="2:23">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
     </row>
     <row r="29" spans="2:23">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
     </row>
     <row r="30" spans="2:23">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
     </row>
     <row r="31" spans="2:23">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
     </row>
     <row r="32" spans="2:23">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="15:23">
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
     </row>
     <row r="34" spans="2:23">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
     </row>
     <row r="35" spans="2:23">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
     </row>
     <row r="36" spans="2:23">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
     </row>
     <row r="38" ht="28" customHeight="1" spans="2:23">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3071,276 +3115,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3379,35 +3423,35 @@
   <sheetPr/>
   <dimension ref="B2:E321"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A174" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A174" workbookViewId="0">
       <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -3415,60 +3459,60 @@
       </c>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
     </row>
     <row r="195" ht="33" customHeight="1" spans="2:5">
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="28"/>
+      <c r="E195" s="28"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="25" t="s">
+      <c r="B230" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
+      <c r="C230" s="28"/>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
     </row>
     <row r="240" ht="34" customHeight="1" spans="2:5">
-      <c r="B240" s="25" t="s">
+      <c r="B240" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="25"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
     </row>
     <row r="261" ht="25" customHeight="1" spans="2:5">
-      <c r="B261" s="25" t="s">
+      <c r="B261" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C261" s="25"/>
-      <c r="D261" s="25"/>
-      <c r="E261" s="25"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="25" t="s">
+      <c r="B288" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C288" s="25"/>
-      <c r="D288" s="25"/>
-      <c r="E288" s="25"/>
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="25" t="s">
+      <c r="B321" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C321" s="25"/>
-      <c r="D321" s="25"/>
-      <c r="E321" s="25"/>
+      <c r="C321" s="28"/>
+      <c r="D321" s="28"/>
+      <c r="E321" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3493,587 +3537,628 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X49"/>
+  <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="16"/>
-    <col min="8" max="8" width="18" style="16" customWidth="1"/>
-    <col min="9" max="20" width="9" style="16"/>
-    <col min="21" max="21" width="18" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="16"/>
+    <col min="1" max="7" width="9" style="17"/>
+    <col min="8" max="8" width="18" style="17" customWidth="1"/>
+    <col min="9" max="20" width="9" style="17"/>
+    <col min="21" max="21" width="18" style="17" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="K2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-    </row>
-    <row r="4" ht="81" customHeight="1" spans="2:23">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" ht="81" customHeight="1" spans="2:26">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="17" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="W6" s="21" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="W6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:8">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="2:23">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="K11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="W11" s="22" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="W11" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="11:21">
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="K15" s="17" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="K15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="11:23">
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="W18" s="22" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="W18" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="43" customHeight="1" spans="2:8">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="2:8">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="2:8">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" ht="57" customHeight="1" spans="2:8">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" ht="57" customHeight="1" spans="2:8">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="2:8">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="2:8">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="2:8">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="2:8">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:8">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="37" ht="71" customHeight="1" spans="2:8">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" ht="71" customHeight="1" spans="2:8">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" ht="71" customHeight="1" spans="2:8">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" ht="71" customHeight="1" spans="2:8">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" ht="71" customHeight="1" spans="2:8">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="2:8">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="44" ht="56" customHeight="1" spans="2:8">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" ht="56" customHeight="1" spans="2:8">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" ht="56" customHeight="1" spans="2:8">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" ht="75" customHeight="1" spans="2:8">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" ht="72" customHeight="1" spans="2:8">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" ht="79" customHeight="1" spans="2:8">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="51" ht="32" customHeight="1" spans="2:8">
+      <c r="B51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" ht="28" customHeight="1" spans="2:8">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" ht="57" customHeight="1" spans="2:8">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="W4:Z4"/>
     <mergeCell ref="K11:U11"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="B6:H11"/>
@@ -4081,13 +4166,13 @@
     <mergeCell ref="K2:U4"/>
     <mergeCell ref="K6:U9"/>
     <mergeCell ref="K15:U18"/>
-    <mergeCell ref="W6:X9"/>
     <mergeCell ref="B19:H22"/>
     <mergeCell ref="B24:H25"/>
     <mergeCell ref="B27:H30"/>
     <mergeCell ref="B32:H35"/>
     <mergeCell ref="B37:H42"/>
     <mergeCell ref="B44:H49"/>
+    <mergeCell ref="B51:H53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="W4" r:id="rId1" display="03_开发者社区资料在线化通用样式规范_V0.1.rar"/>
@@ -4103,298 +4188,594 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K25"/>
+  <dimension ref="B2:X31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="1" max="10" width="9" style="9"/>
+    <col min="11" max="11" width="14.125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" ht="23" customHeight="1" spans="2:11">
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="14" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="13" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="O3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="14" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="O4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="14" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" ht="41" customHeight="1" spans="2:11">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" ht="41" customHeight="1" spans="2:11">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" ht="41" customHeight="1" spans="2:11">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="O9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="14" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="O10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="O15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="O16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" ht="41" customHeight="1" spans="2:24">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="2:24">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" ht="41" customHeight="1" spans="2:24">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="15:24">
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="27" spans="15:24">
+      <c r="O27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="15:24">
+      <c r="O28" s="16"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+    </row>
+    <row r="29" spans="15:24">
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="15:24">
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+    </row>
+    <row r="31" spans="15:24">
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
+    <mergeCell ref="O3:X3"/>
     <mergeCell ref="B9:K9"/>
+    <mergeCell ref="O9:X9"/>
     <mergeCell ref="B15:K15"/>
+    <mergeCell ref="O15:X15"/>
     <mergeCell ref="B21:K21"/>
+    <mergeCell ref="O27:X27"/>
     <mergeCell ref="B4:K7"/>
     <mergeCell ref="B10:K13"/>
     <mergeCell ref="B16:K19"/>
     <mergeCell ref="B22:K25"/>
+    <mergeCell ref="O4:X7"/>
+    <mergeCell ref="O10:X13"/>
+    <mergeCell ref="O16:X25"/>
+    <mergeCell ref="O28:X31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4420,7 +4801,7 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4438,7 +4819,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="2:15">
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4504,41 +4885,41 @@
     </row>
     <row r="7" spans="2:31">
       <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
       <c r="R7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
     </row>
     <row r="8" spans="18:27">
       <c r="R8" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -4552,7 +4933,7 @@
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4610,7 +4991,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -4638,7 +5019,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -4718,7 +5099,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -4862,7 +5243,7 @@
     </row>
     <row r="22" spans="18:27">
       <c r="R22" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -4876,7 +5257,7 @@
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4904,7 +5285,7 @@
     </row>
     <row r="24" spans="18:27">
       <c r="R24" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -4918,7 +5299,7 @@
     </row>
     <row r="25" ht="19" customHeight="1" spans="2:27">
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5165,7 +5546,7 @@
       <c r="O35" s="3"/>
     </row>
     <row r="39" spans="16:16">
-      <c r="P39" s="9"/>
+      <c r="P39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5194,7 +5575,7 @@
   <sheetPr/>
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -5202,7 +5583,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5217,7 +5598,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5232,7 +5613,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5270,7 +5651,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5308,7 +5689,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5346,7 +5727,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="2:11">
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5385,7 +5766,7 @@
     <row r="32" ht="27" hidden="1" customHeight="1"/>
     <row r="64" spans="2:11">
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>数据仓库</t>
   </si>
@@ -361,6 +361,49 @@
  9.最后，Task将在CoarseGrainedExecutorBackend里面运行，然后运行状况会通过Akka通知CoarseGrainedScheduler，直到作业运行完成。</t>
   </si>
   <si>
+    <t>RDD工作原理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RDD(Resilient DistributedDatasets)[1] ,弹性分布式数据集，是分布式内存的一个抽象概念，RDD提供了一种高度受限的共享内存模型，即RDD是只读的记录分区的集合，只能通过在其他RDD执行确定的转换操作（如map、join和group by）而创建，然而这些限制使得实现容错的开销很低。对开发者而言，RDD可以看作是Spark的一个对象，它本身运行于内存中，如读文件是一个RDD，对文件计算是一个RDD，结果集也是一个RDD ，不同的分片、数据之间的依赖、key-value类型的map数据都可以看做RDD。</t>
+  </si>
+  <si>
+    <t>主要分为三部分：创建RDD对象，DAG调度器创建执行计划，Task调度器分配任务并调度Worker开始运行。
+　　SparkContext(RDD相关操作)→通过(提交作业)→(遍历RDD拆分stage→生成作业)DAGScheduler→通过（提交任务集）→任务调度管理(TaskScheduler)→通过（按照资源获取任务)→任务调度管理(TaskSetManager)
+　　Transformation返回值还是一个RDD。它使用了链式调用的设计模式，对一个RDD进行计算后，变换成另外一个RDD，然后这个RDD又可以进行另外一次转换。这个过程是分布式的。
+　　Action返回值不是一个RDD。它要么是一个Scala的普通集合，要么是一个值，要么是空，最终或返回到Driver程序，或把RDD写入到文件系统中
+　　转换(Transformations)(如：map, filter, groupBy, join等)，Transformations操作是Lazy的，也就是说从一个RDD转换生成另一个RDD的操作不是马上执行，Spark在遇到Transformations操作时只会记录需要这样的操作，并不会去执行，需要等到有Actions操作的时候才会真正启动计算过程进行计算。
+　　操作(Actions)(如：count, collect, save等)，Actions操作会返回结果或把RDD数据写到存储系统中。Actions是触发Spark启动计算的动因。
+　　它们本质区别是：Transformation返回值还是一个RDD。它使用了链式调用的设计模式，对一个RDD进行计算后，变换成另外一个RDD，然后这个RDD又可以进行另外一次转换。这个过程是分布式的。Action返回值不是一个RDD。它要么是一个Scala的普通集合，要么是一个值，要么是空，最终或返回到Driver程序，或把RDD写入到文件系统中。关于这两个动作，在Spark开发指南中会有就进一步的详细介绍，它们是基于Spark开发的核心。</t>
+  </si>
+  <si>
+    <t>RDD基础</t>
+  </si>
+  <si>
+    <t>1.Spark中的RDD就是一个不可变的分布式对象集合。每个RDD都被分为多个分区，这些分区运行在集群的不同节点上。创建RDD的方法有两种：一种是读取一个外部数据集；一种是在群东程序里分发驱动器程序中的对象集合，不如刚才的示例，读取文本文件作为一个字符串的RDD的示例。</t>
+  </si>
+  <si>
+    <t>2.创建出来后，RDD支持两种类型的操作:转化操作和行动操作
+　　转化操作会由一个RDD生成一个新的RDD。（比如刚才的根据谓词筛选）
+　　行动操作会对RDD计算出一个结果，并把结果返回到驱动器程序中，或把结果存储到外部存储系统（比如HDFS）中。比如first()操作就是一个行动操作，会返回RDD的第一个元素。
+　　注：转化操作与行动操作的区别在于Spark计算RDD的方式不同。虽然你可以在任何时候定义一个新的RDD，但Spark只会惰性计算这些RDD。它们只有第一个在一个行动操作中用到时，才会真正的计算。之所以这样设计，是因为比如刚才调用sc.textFile(...)时就把文件中的所有行都读取并存储起来，就会消耗很多存储空间，而我们马上又要筛选掉其中的很多数据。
+　　这里还需要注意的一点是，spark会在你每次对它们进行行动操作时重新计算。如果想在多个行动操作中重用同一个RDD，那么可以使用RDD.persist()或RDD.collect()让Spark把这个RDD缓存下来。（可以是内存，也可以是磁盘)</t>
+  </si>
+  <si>
+    <t>3.Spark会使用谱系图来记录这些不同RDD之间的依赖关系，Spark需要用这些信息来按需计算每个RDD，也可以依靠谱系图在持久化的RDD丢失部分数据时用来恢复所丢失的数据。(如下图，过滤errorsRDD与warningsRDD,最终调用union()函数)</t>
+  </si>
+  <si>
+    <t>RDD计算方式</t>
+  </si>
+  <si>
+    <t>RDD宽窄依赖</t>
+  </si>
+  <si>
+    <t>窄依赖 (narrowdependencies) 和宽依赖 (widedependencies) 。窄依赖是指 父 RDD 的每个分区都只被子 RDD 的一个分区所使用 。相应的，那么宽依赖就是指父 RDD 的分区被多个子 RDD 的分区所依赖。例如， map 就是一种窄依赖，而 join 则会导致宽依赖</t>
+  </si>
+  <si>
+    <t>这种划分有两个用处。首先，窄依赖支持在一个结点上管道化执行。例如基于一对一的关系，可以在 filter 之后执行 map 。其次，窄依赖支持更高效的故障还原。因为对于窄依赖，只有丢失的父 RDD 的分区需要重新计算。而对于宽依赖，一个结点的故障可能导致来自所有父 RDD 的分区丢失，因此就需要完全重新执行。因此对于宽依赖，Spark 会在持有各个父分区的结点上，将中间数据持久化来简化故障还原，就像 MapReduce 会持久化 map 的输出一样。</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Spark初始化</t>
   </si>
   <si>
@@ -386,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +452,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -460,11 +509,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,21 +537,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,7 +556,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,45 +600,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,7 +624,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,19 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,19 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,67 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,13 +742,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,31 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,21 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -873,16 +907,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,17 +938,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -923,16 +946,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +983,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,37 +1014,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,98 +1050,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,58 +1169,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1189,10 +1241,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1942,6 +1994,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="97757ec3b2ab4d56b0942b96e300c71d"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="13455650"/>
+          <a:ext cx="4344035" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="06d3d32ab45742e68e7683672f6a46a5_th"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="15240000"/>
+          <a:ext cx="7228840" cy="3878580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>271780</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="c8c6f04edfc14bb79dffd997e1de2e5a_th"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="19599275"/>
+          <a:ext cx="6167755" cy="4092575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -2318,22 +2489,22 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="3" t="s">
@@ -3115,276 +3286,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3430,28 +3601,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -3459,60 +3630,60 @@
       </c>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="28" t="s">
+      <c r="B172" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="195" ht="33" customHeight="1" spans="2:5">
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="28" t="s">
+      <c r="B230" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
     </row>
     <row r="240" ht="34" customHeight="1" spans="2:5">
-      <c r="B240" s="28" t="s">
+      <c r="B240" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C240" s="28"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="28"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="29"/>
     </row>
     <row r="261" ht="25" customHeight="1" spans="2:5">
-      <c r="B261" s="28" t="s">
+      <c r="B261" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
-      <c r="E261" s="28"/>
+      <c r="C261" s="29"/>
+      <c r="D261" s="29"/>
+      <c r="E261" s="29"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="28" t="s">
+      <c r="B288" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
-      <c r="E288" s="28"/>
+      <c r="C288" s="29"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="28" t="s">
+      <c r="B321" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C321" s="28"/>
-      <c r="D321" s="28"/>
-      <c r="E321" s="28"/>
+      <c r="C321" s="29"/>
+      <c r="D321" s="29"/>
+      <c r="E321" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3545,616 +3716,616 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="18" style="17" customWidth="1"/>
-    <col min="9" max="20" width="9" style="17"/>
-    <col min="21" max="21" width="18" style="17" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="17"/>
+    <col min="1" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="18" style="14" customWidth="1"/>
+    <col min="9" max="20" width="9" style="14"/>
+    <col min="21" max="21" width="18" style="14" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
     </row>
     <row r="4" ht="81" customHeight="1" spans="2:26">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
     </row>
     <row r="6" spans="2:26">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="K6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="W6" s="23" t="s">
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="W6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
     </row>
     <row r="7" spans="2:26">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:8">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="2:23">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="K11" s="18" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="W11" s="24" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="W11" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="11:21">
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="K15" s="18" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="K15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="11:23">
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="W18" s="24" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="W18" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" ht="43" customHeight="1" spans="2:8">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="2:8">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="2:8">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" ht="57" customHeight="1" spans="2:8">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" ht="57" customHeight="1" spans="2:8">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="2:8">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="2:8">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="2:8">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="2:8">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:8">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="37" ht="71" customHeight="1" spans="2:8">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" ht="71" customHeight="1" spans="2:8">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" ht="71" customHeight="1" spans="2:8">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" ht="71" customHeight="1" spans="2:8">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" ht="71" customHeight="1" spans="2:8">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="2:8">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="44" ht="56" customHeight="1" spans="2:8">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" ht="56" customHeight="1" spans="2:8">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" ht="56" customHeight="1" spans="2:8">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" ht="75" customHeight="1" spans="2:8">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" ht="72" customHeight="1" spans="2:8">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" ht="79" customHeight="1" spans="2:8">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="51" ht="32" customHeight="1" spans="2:8">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" ht="28" customHeight="1" spans="2:8">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" ht="57" customHeight="1" spans="2:8">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4190,572 +4361,572 @@
   <sheetPr/>
   <dimension ref="B2:X31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="10" width="9" style="9"/>
-    <col min="11" max="11" width="14.125" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="9"/>
+    <col min="1" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="14.125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="2" ht="23" customHeight="1" spans="2:11">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="O4" s="13" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="O4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
     </row>
     <row r="9" spans="2:24">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="O9" s="11" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="O9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="O10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="O10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="O15" s="11" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="O15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="O16" s="15" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="O16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" ht="41" customHeight="1" spans="2:24">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" ht="41" customHeight="1" spans="2:24">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="19" ht="41" customHeight="1" spans="2:24">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
     </row>
     <row r="20" spans="15:24">
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
     </row>
     <row r="27" spans="15:24">
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
     </row>
     <row r="28" spans="15:24">
-      <c r="O28" s="16"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
     </row>
     <row r="29" spans="15:24">
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
     </row>
     <row r="30" spans="15:24">
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
     </row>
     <row r="31" spans="15:24">
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4785,10 +4956,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AE39"/>
+  <dimension ref="B2:AE136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:O23"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="W124" sqref="W124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5545,16 +5716,688 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="39" spans="16:16">
-      <c r="P39" s="8"/>
+    <row r="38" spans="18:27">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="2:27">
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="9"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="2:27">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="2:27">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="18:27">
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="2:27">
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" ht="15" spans="2:21">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="U51" s="10"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="62" ht="66" customHeight="1" spans="2:15">
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" ht="66" customHeight="1" spans="2:15">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+    </row>
+    <row r="128" spans="2:15">
+      <c r="B128" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+    </row>
+    <row r="129" spans="2:15">
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="12"/>
+    </row>
+    <row r="130" spans="2:15">
+      <c r="B130" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="2:15">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+    </row>
+    <row r="132" spans="2:15">
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+    </row>
+    <row r="134" spans="2:15">
+      <c r="B134" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+    </row>
+    <row r="135" spans="2:15">
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="2:15">
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="27">
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="R7:AE7"/>
     <mergeCell ref="R11:AA11"/>
     <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="B57:O57"/>
     <mergeCell ref="B9:O20"/>
     <mergeCell ref="B25:O35"/>
     <mergeCell ref="R8:AA9"/>
@@ -5564,9 +6407,21 @@
     <mergeCell ref="R22:AA23"/>
     <mergeCell ref="R24:AA31"/>
     <mergeCell ref="B3:O6"/>
+    <mergeCell ref="R38:AA45"/>
+    <mergeCell ref="B40:O43"/>
+    <mergeCell ref="B45:O55"/>
+    <mergeCell ref="B59:O60"/>
+    <mergeCell ref="B62:O63"/>
+    <mergeCell ref="B65:O66"/>
+    <mergeCell ref="B76:O77"/>
+    <mergeCell ref="B101:O102"/>
+    <mergeCell ref="B128:O129"/>
+    <mergeCell ref="B130:O132"/>
+    <mergeCell ref="B134:O136"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5576,7 +6431,7 @@
   <dimension ref="B2:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B64" sqref="B64:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5598,7 +6453,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5613,7 +6468,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5651,7 +6506,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5689,7 +6544,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5727,7 +6582,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="2:11">
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5766,7 +6621,7 @@
     <row r="32" ht="27" hidden="1" customHeight="1"/>
     <row r="64" spans="2:11">
       <c r="B64" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>数据仓库</t>
   </si>
@@ -35,6 +35,9 @@
     <t>原子数据仓库
 原子数据仓库的子集，就是数据集市
 可以位于原子数据仓库的附近，或者分布到更靠近用户的位置，放置在何处取决于使用和通讯成本</t>
+  </si>
+  <si>
+    <t>宽表应用的场景 : 提高数据挖掘模型训练过程中迭代计算时的效率问题。</t>
   </si>
   <si>
     <t>独立型（直接从操作型环境中获取数据）：与其他工作组、部门或业务线的数据集市没有任何连通性
@@ -429,8 +432,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -509,26 +512,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +525,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,36 +559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,16 +574,45 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +627,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,13 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +691,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,67 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,43 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +900,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -907,16 +925,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +956,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -946,31 +975,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,17 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1002,149 +1005,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,21 +1172,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1246,6 +1240,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2479,8 +2476,8 @@
   <sheetPr/>
   <dimension ref="B2:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2489,24 +2486,24 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2523,8 +2520,19 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="O3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2537,6 +2545,15 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="3"/>
@@ -2588,7 +2605,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2654,7 +2671,7 @@
     </row>
     <row r="13" spans="2:23">
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2662,7 +2679,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2670,7 +2687,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3245,7 +3262,7 @@
       <c r="W38" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="B3:G7"/>
@@ -3263,6 +3280,7 @@
     <mergeCell ref="B34:G38"/>
     <mergeCell ref="H34:M38"/>
     <mergeCell ref="O13:W38"/>
+    <mergeCell ref="O3:W4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3286,276 +3304,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3601,89 +3619,89 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="B50" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="B99" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
+      <c r="B172" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
     </row>
     <row r="195" ht="33" customHeight="1" spans="2:5">
-      <c r="B195" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
+      <c r="B195" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
+      <c r="B230" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
     </row>
     <row r="240" ht="34" customHeight="1" spans="2:5">
-      <c r="B240" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
-      <c r="E240" s="29"/>
+      <c r="B240" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
     </row>
     <row r="261" ht="25" customHeight="1" spans="2:5">
-      <c r="B261" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C261" s="29"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
+      <c r="B261" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C288" s="29"/>
-      <c r="D288" s="29"/>
-      <c r="E288" s="29"/>
+      <c r="B288" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="26"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="26"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C321" s="29"/>
-      <c r="D321" s="29"/>
-      <c r="E321" s="29"/>
+      <c r="B321" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" s="26"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3710,622 +3728,622 @@
   <sheetPr/>
   <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="18" style="14" customWidth="1"/>
-    <col min="9" max="20" width="9" style="14"/>
-    <col min="21" max="21" width="18" style="14" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="14"/>
+    <col min="1" max="7" width="9" style="11"/>
+    <col min="8" max="8" width="18" style="11" customWidth="1"/>
+    <col min="9" max="20" width="9" style="11"/>
+    <col min="21" max="21" width="18" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" ht="81" customHeight="1" spans="2:26">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="6" spans="2:26">
-      <c r="B6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="K6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="W6" s="24" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="W6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
     </row>
     <row r="7" spans="2:26">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:8">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="2:23">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="K11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="W11" s="25" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="W11" s="22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="11:21">
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
+      <c r="B13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="K15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="11:23">
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="W18" s="25" t="s">
-        <v>33</v>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="W18" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="43" customHeight="1" spans="2:8">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="2:8">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="2:8">
-      <c r="B27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="B27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="57" customHeight="1" spans="2:8">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" ht="57" customHeight="1" spans="2:8">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="2:8">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="2:8">
-      <c r="B32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="B32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="2:8">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="2:8">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:8">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="37" ht="71" customHeight="1" spans="2:8">
-      <c r="B37" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+      <c r="B37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" ht="71" customHeight="1" spans="2:8">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" ht="71" customHeight="1" spans="2:8">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" ht="71" customHeight="1" spans="2:8">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" ht="71" customHeight="1" spans="2:8">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="2:8">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="44" ht="56" customHeight="1" spans="2:8">
-      <c r="B44" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="B44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" ht="56" customHeight="1" spans="2:8">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" ht="56" customHeight="1" spans="2:8">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" ht="75" customHeight="1" spans="2:8">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" ht="72" customHeight="1" spans="2:8">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" ht="79" customHeight="1" spans="2:8">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="51" ht="32" customHeight="1" spans="2:8">
-      <c r="B51" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="B51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" ht="28" customHeight="1" spans="2:8">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" ht="57" customHeight="1" spans="2:8">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4367,566 +4385,566 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="10" width="9" style="14"/>
-    <col min="11" max="11" width="14.125" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="14"/>
+    <col min="1" max="10" width="9" style="11"/>
+    <col min="11" max="11" width="14.125" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" ht="23" customHeight="1" spans="2:11">
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="O3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="O4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="O4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
     </row>
     <row r="9" spans="2:24">
-      <c r="B9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="O9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="O10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="O10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="O15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="O16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="O16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" ht="41" customHeight="1" spans="2:24">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" ht="41" customHeight="1" spans="2:24">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
     </row>
     <row r="19" ht="41" customHeight="1" spans="2:24">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
     </row>
     <row r="20" spans="15:24">
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+    </row>
+    <row r="27" spans="15:24">
+      <c r="O27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-    </row>
-    <row r="23" spans="2:24">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-    </row>
-    <row r="24" spans="2:24">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-    </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-    </row>
-    <row r="27" spans="15:24">
-      <c r="O27" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
     </row>
     <row r="28" spans="15:24">
-      <c r="O28" s="17"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
     </row>
     <row r="29" spans="15:24">
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
     </row>
     <row r="30" spans="15:24">
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
     </row>
     <row r="31" spans="15:24">
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4958,8 +4976,8 @@
   <sheetPr/>
   <dimension ref="B2:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="W124" sqref="W124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S142" sqref="S142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4972,7 +4990,7 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4990,7 +5008,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="2:15">
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5056,7 +5074,7 @@
     </row>
     <row r="7" spans="2:31">
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5072,7 +5090,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="R7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -5090,7 +5108,7 @@
     </row>
     <row r="8" spans="18:27">
       <c r="R8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -5104,7 +5122,7 @@
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5162,7 +5180,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -5190,7 +5208,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -5270,7 +5288,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -5414,7 +5432,7 @@
     </row>
     <row r="22" spans="18:27">
       <c r="R22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5428,7 +5446,7 @@
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5456,7 +5474,7 @@
     </row>
     <row r="24" spans="18:27">
       <c r="R24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -5470,7 +5488,7 @@
     </row>
     <row r="25" ht="19" customHeight="1" spans="2:27">
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5730,7 +5748,7 @@
     </row>
     <row r="39" spans="2:27">
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5745,7 +5763,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="9"/>
+      <c r="P39" s="8"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -5759,7 +5777,7 @@
     </row>
     <row r="40" spans="2:27">
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5877,7 +5895,7 @@
     </row>
     <row r="45" spans="2:27">
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5998,7 +6016,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="U51" s="10"/>
+      <c r="U51" s="9"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="3"/>
@@ -6066,7 +6084,7 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -6083,311 +6101,311 @@
       <c r="O57" s="5"/>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="B59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
     </row>
     <row r="62" ht="66" customHeight="1" spans="2:15">
-      <c r="B62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
+      <c r="B62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" ht="66" customHeight="1" spans="2:15">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="B65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
+      <c r="B76" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="13"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="101" spans="2:15">
-      <c r="B101" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
+      <c r="B101" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
     </row>
     <row r="102" spans="2:15">
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
     </row>
     <row r="128" spans="2:15">
-      <c r="B128" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
+      <c r="B128" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
     </row>
     <row r="129" spans="2:15">
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
-      <c r="O129" s="12"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
     </row>
     <row r="130" spans="2:15">
-      <c r="B130" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
+      <c r="B130" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
     </row>
     <row r="131" spans="2:15">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
     </row>
     <row r="132" spans="2:15">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
     </row>
     <row r="134" spans="2:15">
-      <c r="B134" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
+      <c r="B134" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
     </row>
     <row r="135" spans="2:15">
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
     </row>
     <row r="136" spans="2:15">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -6430,7 +6448,7 @@
   <sheetPr/>
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B64" sqref="B64:K66"/>
     </sheetView>
   </sheetViews>
@@ -6438,7 +6456,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6453,7 +6471,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6468,7 +6486,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6506,7 +6524,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6544,7 +6562,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6582,7 +6600,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="2:11">
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6621,7 +6639,7 @@
     <row r="32" ht="27" hidden="1" customHeight="1"/>
     <row r="64" spans="2:11">
       <c r="B64" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="数据仓库和数据集市" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>数据仓库</t>
   </si>
@@ -297,9 +297,12 @@
     <t>场景</t>
   </si>
   <si>
-    <t>1. 关联操作中有一张表非常小
+    <t xml:space="preserve">1. 关联操作中有一张表非常小
 2.不等值的链接操作
-Hint</t>
+</t>
+  </si>
+  <si>
+    <t>Hint</t>
   </si>
   <si>
     <t>Spark on Yarn</t>
@@ -432,8 +435,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -506,38 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,14 +524,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,24 +546,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,13 +585,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -626,8 +592,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +670,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +724,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,151 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,6 +903,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -915,26 +942,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,39 +1000,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1005,149 +1008,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,6 +1197,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2476,8 +2482,8 @@
   <sheetPr/>
   <dimension ref="B2:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2486,22 +2492,22 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
@@ -2520,17 +2526,17 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="3"/>
@@ -2545,15 +2551,15 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="3"/>
@@ -3304,276 +3310,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3619,28 +3625,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -3648,60 +3654,60 @@
       </c>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
     </row>
     <row r="195" ht="33" customHeight="1" spans="2:5">
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="26" t="s">
+      <c r="B230" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
     </row>
     <row r="240" ht="34" customHeight="1" spans="2:5">
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
     </row>
     <row r="261" ht="25" customHeight="1" spans="2:5">
-      <c r="B261" s="26" t="s">
+      <c r="B261" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="26" t="s">
+      <c r="B288" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C288" s="26"/>
-      <c r="D288" s="26"/>
-      <c r="E288" s="26"/>
+      <c r="C288" s="27"/>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="26" t="s">
+      <c r="B321" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C321" s="26"/>
-      <c r="D321" s="26"/>
-      <c r="E321" s="26"/>
+      <c r="C321" s="27"/>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3742,608 +3748,608 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="2:21">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" ht="81" customHeight="1" spans="2:26">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="6" spans="2:26">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="W6" s="21" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="W6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="2:26">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:8">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="80" customHeight="1" spans="2:23">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="K11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="W11" s="22" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="W11" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="11:21">
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="K15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="11:23">
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="W18" s="22" t="s">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="W18" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="43" customHeight="1" spans="2:8">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="2:8">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="27" ht="57" customHeight="1" spans="2:8">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" ht="57" customHeight="1" spans="2:8">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" ht="57" customHeight="1" spans="2:8">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="2:8">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="32" ht="42" customHeight="1" spans="2:8">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" ht="42" customHeight="1" spans="2:8">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" ht="42" customHeight="1" spans="2:8">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:8">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="37" ht="71" customHeight="1" spans="2:8">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" ht="71" customHeight="1" spans="2:8">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" ht="71" customHeight="1" spans="2:8">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" ht="71" customHeight="1" spans="2:8">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" ht="71" customHeight="1" spans="2:8">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="2:8">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="44" ht="56" customHeight="1" spans="2:8">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" ht="56" customHeight="1" spans="2:8">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" ht="56" customHeight="1" spans="2:8">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" ht="75" customHeight="1" spans="2:8">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" ht="72" customHeight="1" spans="2:8">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" ht="79" customHeight="1" spans="2:8">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="51" ht="32" customHeight="1" spans="2:8">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" ht="28" customHeight="1" spans="2:8">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" ht="57" customHeight="1" spans="2:8">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4380,7 +4386,7 @@
   <dimension ref="B2:X31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="B27" sqref="B27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4884,7 +4890,19 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="27" spans="15:24">
+    <row r="27" spans="2:24">
+      <c r="B27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="O27" s="13" t="s">
         <v>53</v>
       </c>
@@ -4947,7 +4965,7 @@
       <c r="X31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="O3:X3"/>
@@ -4956,6 +4974,7 @@
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="O15:X15"/>
     <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B27:K27"/>
     <mergeCell ref="O27:X27"/>
     <mergeCell ref="B4:K7"/>
     <mergeCell ref="B10:K13"/>
@@ -4976,7 +4995,7 @@
   <sheetPr/>
   <dimension ref="B2:AE136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S142" sqref="S142"/>
     </sheetView>
   </sheetViews>
@@ -4990,7 +5009,7 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -5008,7 +5027,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="2:15">
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5074,7 +5093,7 @@
     </row>
     <row r="7" spans="2:31">
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5090,7 +5109,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="R7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -5108,7 +5127,7 @@
     </row>
     <row r="8" spans="18:27">
       <c r="R8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -5122,7 +5141,7 @@
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5180,7 +5199,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -5208,7 +5227,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -5288,7 +5307,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -5432,7 +5451,7 @@
     </row>
     <row r="22" spans="18:27">
       <c r="R22" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5446,7 +5465,7 @@
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5474,7 +5493,7 @@
     </row>
     <row r="24" spans="18:27">
       <c r="R24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -5488,7 +5507,7 @@
     </row>
     <row r="25" ht="19" customHeight="1" spans="2:27">
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5748,7 +5767,7 @@
     </row>
     <row r="39" spans="2:27">
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5777,7 +5796,7 @@
     </row>
     <row r="40" spans="2:27">
       <c r="B40" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5895,7 +5914,7 @@
     </row>
     <row r="45" spans="2:27">
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6084,7 +6103,7 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -6102,7 +6121,7 @@
     </row>
     <row r="59" spans="2:15">
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6136,7 +6155,7 @@
     </row>
     <row r="62" ht="66" customHeight="1" spans="2:15">
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6170,7 +6189,7 @@
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6204,7 +6223,7 @@
     </row>
     <row r="76" spans="2:15">
       <c r="B76" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -6241,7 +6260,7 @@
     </row>
     <row r="101" spans="2:15">
       <c r="B101" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -6275,7 +6294,7 @@
     </row>
     <row r="128" spans="2:15">
       <c r="B128" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -6309,7 +6328,7 @@
     </row>
     <row r="130" spans="2:15">
       <c r="B130" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -6359,7 +6378,7 @@
     </row>
     <row r="134" spans="2:15">
       <c r="B134" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -6448,15 +6467,15 @@
   <sheetPr/>
   <dimension ref="B2:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:K66"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6471,7 +6490,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6486,7 +6505,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6524,7 +6543,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6562,7 +6581,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6600,7 +6619,7 @@
     </row>
     <row r="29" ht="30" customHeight="1" spans="2:11">
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6639,7 +6658,7 @@
     <row r="32" ht="27" hidden="1" customHeight="1"/>
     <row r="64" spans="2:11">
       <c r="B64" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>

--- a/resource/How.xlsx
+++ b/resource/How.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Spark on Yarn执行流程和节点的概念" sheetId="6" r:id="rId6"/>
     <sheet name="Spark初始化" sheetId="7" r:id="rId7"/>
     <sheet name="vLookup" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -530,14 +531,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -546,29 +547,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,9 +568,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +590,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,15 +643,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,21 +652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,19 +728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,19 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,37 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,19 +806,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,43 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,25 +926,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,6 +973,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -991,22 +992,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +1007,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1029,149 +1030,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,9 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2559,22 +2557,22 @@
   </cols>
   <sheetData>
     <row r="2" ht="24" customHeight="1" spans="2:13">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="4" t="s">
@@ -2593,17 +2591,17 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="4"/>
@@ -2618,15 +2616,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="4"/>
@@ -3377,276 +3375,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" ht="67" customHeight="1" spans="2:11">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3692,28 +3690,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
@@ -3721,60 +3719,60 @@
       </c>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="28" t="s">
+      <c r="B172" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
     </row>
     <row r="195" ht="33" customHeight="1" spans="2:5">
-      <c r="B195" s="28" t="s">
+      <c r="B195" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-      <c r="E195" s="28"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="28" t="s">
+      <c r="B230" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-      <c r="E230" s="28"/>
+      <c r="C230" s="27"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
     </row>
     <row r="240" ht="34" customHeight="1" spans="2:5">
-      <c r="B240" s="28" t="s">
+      <c r="B240" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C240" s="28"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="28"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
     </row>
     <row r="261" ht="25" customHeight="1" spans="2:5">
-      <c r="B261" s="28" t="s">
+      <c r="B261" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
-      <c r="E261" s="28"/>
+      <c r="C261" s="27"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="28" t="s">
+      <c r="B288" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
-      <c r="E288" s="28"/>
+      <c r="C288" s="27"/>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="28" t="s">
+      <c r="B321" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C321" s="28"/>
-      <c r="D321" s="28"/>
-      <c r="E321" s="28"/>
+      <c r="C321" s="27"/>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3827,16 +3825,16 @@
       <c r="K2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="2:21">
       <c r="B3" s="18"/>
@@ -3846,17 +3844,17 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" ht="81" customHeight="1" spans="2:26">
       <c r="B4" s="18"/>
@@ -3866,24 +3864,24 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
     </row>
     <row r="6" spans="2:26">
       <c r="B6" s="18" t="s">
@@ -3908,12 +3906,12 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="2:26">
       <c r="B7" s="18"/>
@@ -3934,10 +3932,10 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="2:26">
       <c r="B8" s="18"/>
@@ -3958,10 +3956,10 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="2:26">
       <c r="B9" s="18"/>
@@ -3982,10 +3980,10 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:8">
       <c r="B10" s="18"/>
@@ -4017,22 +4015,22 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
-      <c r="W11" s="24" t="s">
+      <c r="W11" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="11:21">
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="18" t="s">
@@ -4044,17 +4042,17 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="18"/>
@@ -4139,7 +4137,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
-      <c r="W18" s="24" t="s">
+      <c r="W18" s="23" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4393,30 +4391,30 @@
       <c r="B51" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" ht="28" customHeight="1" spans="2:8">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" ht="57" customHeight="1" spans="2:8">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6783,7 +6781,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6873,4 +6871,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>